--- a/Archivos/InscriptosPrinci.xlsx
+++ b/Archivos/InscriptosPrinci.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloos\Desktop\ARG_OPT_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cloos\Desktop\ARG_OPT_2022\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7794107-9314-4943-AC38-59D93D4D3D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E4B20F-8506-47AD-8E0A-D53E14227225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1122,10 +1122,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:E1282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1156,248 +1159,248 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2">
-        <v>15</v>
+        <v>3527</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="3">
-        <v>39536</v>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2">
-        <v>17</v>
+        <v>352</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="3">
-        <v>40017</v>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2">
-        <v>48</v>
+        <v>3682</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="3">
-        <v>40182</v>
+      <c r="E4" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>214</v>
       </c>
       <c r="B5" s="2">
-        <v>352</v>
+        <v>4036</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2">
-        <v>360</v>
+        <v>3438</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="3">
-        <v>40986</v>
+        <v>44883</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="B7" s="2">
-        <v>372</v>
+        <v>3578</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="3">
-        <v>40210</v>
+        <v>44765</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>135</v>
       </c>
       <c r="B8" s="2">
-        <v>466</v>
+        <v>3668</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="3">
-        <v>40917</v>
+        <v>41876</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B9" s="2">
-        <v>926</v>
+        <v>3373</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="3">
-        <v>41495</v>
+        <v>41851</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="B10" s="2">
-        <v>1595</v>
+        <v>3531</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3">
-        <v>41070</v>
+        <v>41761</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>180</v>
       </c>
       <c r="B11" s="2">
-        <v>1920</v>
+        <v>3868</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="3">
-        <v>40773</v>
+        <v>41661</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B12" s="2">
-        <v>2696</v>
+        <v>2905</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="3">
-        <v>40169</v>
+        <v>41649</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2">
-        <v>2737</v>
+        <v>3050</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E13" s="3">
-        <v>39971</v>
+        <v>41604</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="B14" s="2">
-        <v>2797</v>
+        <v>3318</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E14" s="3">
-        <v>40260</v>
+        <v>41557</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2">
-        <v>2870</v>
+        <v>926</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="3">
-        <v>40456</v>
+        <v>41495</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2">
-        <v>2905</v>
+        <v>3170</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>4</v>
@@ -1406,372 +1409,372 @@
         <v>34</v>
       </c>
       <c r="E16" s="3">
-        <v>41649</v>
+        <v>41459</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B17" s="2">
-        <v>2969</v>
+        <v>3088</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E17" s="3">
-        <v>40005</v>
+        <v>41435</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="B18" s="2">
-        <v>2991</v>
+        <v>4058</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" s="3">
-        <v>40588</v>
+        <v>41405</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B19" s="2">
-        <v>3022</v>
+        <v>3415</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="3">
-        <v>40108</v>
+        <v>41398</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="B20" s="2">
-        <v>3047</v>
+        <v>3562</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E20" s="3">
-        <v>40344</v>
+        <v>41375</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B21" s="2">
-        <v>3050</v>
+        <v>3499</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="3">
-        <v>41604</v>
+        <v>41342</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2">
-        <v>3065</v>
+        <v>3984</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E22" s="3">
-        <v>40049</v>
+        <v>41335</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="B23" s="2">
-        <v>3070</v>
+        <v>3275</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" s="3">
-        <v>40564</v>
+        <v>41310</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>58</v>
+        <v>184</v>
       </c>
       <c r="B24" s="2">
-        <v>3077</v>
+        <v>3882</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E24" s="3">
-        <v>40486</v>
+        <v>41279</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>190</v>
       </c>
       <c r="B25" s="2">
-        <v>3078</v>
+        <v>3915</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="3">
-        <v>40649</v>
+        <v>41253</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>60</v>
+        <v>160</v>
       </c>
       <c r="B26" s="2">
-        <v>3083</v>
+        <v>3817</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="3">
-        <v>40997</v>
+        <v>41238</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>61</v>
+        <v>100</v>
       </c>
       <c r="B27" s="2">
-        <v>3088</v>
+        <v>3469</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E27" s="3">
-        <v>41435</v>
+        <v>41219</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2">
-        <v>3097</v>
+        <v>4026</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E28" s="3">
-        <v>40557</v>
+        <v>41207</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B29" s="2">
-        <v>3099</v>
+        <v>3264</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E29" s="3">
-        <v>39169</v>
+        <v>41185</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>154</v>
       </c>
       <c r="B30" s="2">
-        <v>3105</v>
+        <v>3765</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="3">
-        <v>40252</v>
+        <v>41184</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B31" s="2">
-        <v>3114</v>
+        <v>3290</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E31" s="3">
-        <v>40316</v>
+        <v>41181</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>211</v>
       </c>
       <c r="B32" s="2">
-        <v>3122</v>
+        <v>4031</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" s="3">
-        <v>41082</v>
+        <v>41177</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="B33" s="2">
-        <v>3158</v>
+        <v>3969</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="3">
-        <v>40833</v>
+        <v>41159</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="B34" s="2">
-        <v>3170</v>
+        <v>3744</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34" s="3">
-        <v>41459</v>
+        <v>41158</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="B35" s="2">
-        <v>3177</v>
+        <v>4025</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E35" s="3">
-        <v>40688</v>
+        <v>41152</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>187</v>
       </c>
       <c r="B36" s="2">
-        <v>3181</v>
+        <v>3908</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E36" s="3">
-        <v>40741</v>
+        <v>41145</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="B37" s="2">
-        <v>3187</v>
+        <v>8730</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E37" s="3">
-        <v>40043</v>
+        <v>41142</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2">
-        <v>3198</v>
+        <v>3488</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>18</v>
@@ -1780,831 +1783,831 @@
         <v>34</v>
       </c>
       <c r="E38" s="3">
-        <v>40904</v>
+        <v>41124</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>74</v>
+        <v>169</v>
       </c>
       <c r="B39" s="2">
-        <v>3209</v>
+        <v>3830</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="3">
-        <v>40871</v>
+        <v>34</v>
+      </c>
+      <c r="E39" s="4">
+        <v>41088</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B40" s="2">
-        <v>3227</v>
+        <v>3122</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E40" s="3">
-        <v>40127</v>
+        <v>41082</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>76</v>
+        <v>191</v>
       </c>
       <c r="B41" s="2">
-        <v>3228</v>
+        <v>3918</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E41" s="3">
-        <v>40431</v>
+        <v>41073</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="B42" s="2">
-        <v>3239</v>
+        <v>1595</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="3">
-        <v>40756</v>
+        <v>41070</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>78</v>
+        <v>200</v>
       </c>
       <c r="B43" s="2">
-        <v>3241</v>
+        <v>3968</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E43" s="3">
-        <v>40032</v>
+        <v>41049</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>79</v>
+        <v>166</v>
       </c>
       <c r="B44" s="2">
-        <v>3245</v>
+        <v>3824</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E44" s="3">
-        <v>40834</v>
+        <v>41040</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="B45" s="2">
-        <v>3264</v>
+        <v>3736</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E45" s="3">
-        <v>41185</v>
+        <v>41032</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="B46" s="2">
-        <v>3268</v>
+        <v>3990</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E46" s="3">
-        <v>39985</v>
+        <v>41015</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B47" s="2">
-        <v>3275</v>
+        <v>3083</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E47" s="3">
-        <v>41310</v>
+        <v>40997</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="B48" s="2">
-        <v>3290</v>
+        <v>360</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E48" s="3">
-        <v>41181</v>
+        <v>40986</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="B49" s="2">
-        <v>3316</v>
+        <v>3819</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E49" s="3">
-        <v>40956</v>
+        <v>40970</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
       <c r="B50" s="2">
-        <v>3318</v>
+        <v>3817</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E50" s="3">
-        <v>41557</v>
+        <v>40962</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51" s="2">
-        <v>3330</v>
+        <v>3316</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E51" s="3">
-        <v>40827</v>
+        <v>40956</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>87</v>
+        <v>129</v>
       </c>
       <c r="B52" s="2">
-        <v>3335</v>
+        <v>3611</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E52" s="3">
-        <v>40015</v>
+        <v>40955</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="B53" s="2">
-        <v>3346</v>
+        <v>3920</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E53" s="3">
-        <v>40545</v>
+        <v>40955</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B54" s="2">
-        <v>3373</v>
+        <v>3504</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E54" s="3">
-        <v>41851</v>
+        <v>40954</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="B55" s="2">
-        <v>3390</v>
+        <v>3897</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E55" s="3">
-        <v>40470</v>
+        <v>40954</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B56" s="2">
-        <v>3411</v>
+        <v>3526</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E56" s="3">
-        <v>39899</v>
+        <v>40948</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>92</v>
+        <v>195</v>
       </c>
       <c r="B57" s="2">
-        <v>3415</v>
+        <v>3951</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E57" s="3">
-        <v>41398</v>
+        <v>40939</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="B58" s="2">
-        <v>3431</v>
+        <v>466</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E58" s="3">
-        <v>40658</v>
+        <v>40917</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>94</v>
+        <v>199</v>
       </c>
       <c r="B59" s="2">
-        <v>3433</v>
+        <v>3959</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E59" s="3">
-        <v>40307</v>
+        <v>40905</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B60" s="2">
-        <v>3434</v>
+        <v>3198</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E60" s="3">
-        <v>40723</v>
+        <v>40904</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>96</v>
+        <v>152</v>
       </c>
       <c r="B61" s="2">
-        <v>3435</v>
+        <v>3757</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E61" s="3">
-        <v>40220</v>
+        <v>40893</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>97</v>
+        <v>145</v>
       </c>
       <c r="B62" s="2">
-        <v>3438</v>
+        <v>3724</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E62" s="3">
-        <v>44883</v>
+        <v>40882</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="B63" s="2">
-        <v>3450</v>
+        <v>4033</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E63" s="3">
-        <v>40156</v>
+        <v>40876</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B64" s="2">
-        <v>3453</v>
+        <v>3209</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E64" s="3">
-        <v>40252</v>
+        <v>40871</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="B65" s="2">
-        <v>3469</v>
+        <v>3860</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E65" s="3">
-        <v>41219</v>
+        <v>40871</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B66" s="2">
-        <v>3481</v>
+        <v>3483</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E66" s="3">
-        <v>40129</v>
+        <v>40869</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="B67" s="2">
-        <v>3483</v>
+        <v>3802</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E67" s="3">
-        <v>40869</v>
+        <v>40862</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>103</v>
+        <v>179</v>
       </c>
       <c r="B68" s="2">
-        <v>3484</v>
+        <v>3862</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E68" s="3">
-        <v>40680</v>
+        <v>40855</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="B69" s="2">
-        <v>3485</v>
+        <v>3245</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E69" s="3">
-        <v>40456</v>
+        <v>40834</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="B70" s="2">
-        <v>3488</v>
+        <v>3158</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E70" s="3">
-        <v>41124</v>
+        <v>40833</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="B71" s="2">
-        <v>3499</v>
+        <v>4056</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E71" s="3">
-        <v>41342</v>
+        <v>40828</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B72" s="2">
-        <v>3499</v>
+        <v>3330</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E72" s="3">
-        <v>39971</v>
+        <v>40827</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="B73" s="2">
-        <v>3504</v>
+        <v>3833</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E73" s="3">
-        <v>40954</v>
+        <v>40799</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="B74" s="2">
-        <v>3517</v>
+        <v>3854</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E74" s="3">
-        <v>40082</v>
+        <v>40791</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="B75" s="2">
-        <v>3526</v>
+        <v>3576</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E75" s="3">
-        <v>40948</v>
+        <v>40789</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B76" s="2">
-        <v>3527</v>
+        <v>3620</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="E76" s="3">
+        <v>40775</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="B77" s="2">
-        <v>3528</v>
+        <v>4021</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E77" s="3">
-        <v>40533</v>
+        <v>40774</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="B78" s="2">
-        <v>3531</v>
+        <v>1920</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E78" s="3">
-        <v>41761</v>
+        <v>40773</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2">
-        <v>3532</v>
+        <v>3538</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E79" s="3">
-        <v>40658</v>
+        <v>40773</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B80" s="2">
-        <v>3534</v>
+        <v>3694</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E80" s="3">
-        <v>40526</v>
+        <v>40770</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="B81" s="2">
-        <v>3538</v>
+        <v>3980</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E81" s="3">
-        <v>40773</v>
+        <v>40770</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>117</v>
+        <v>174</v>
       </c>
       <c r="B82" s="2">
-        <v>3562</v>
+        <v>3855</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E82" s="3">
-        <v>41375</v>
+        <v>40765</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="B83" s="2">
-        <v>3563</v>
+        <v>3239</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E83" s="3">
-        <v>40625</v>
+        <v>40756</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2">
-        <v>3566</v>
+        <v>3616</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E84" s="3">
-        <v>39885</v>
+        <v>40754</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>120</v>
+        <v>208</v>
       </c>
       <c r="B85" s="2">
-        <v>3570</v>
+        <v>4024</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E85" s="3">
-        <v>39869</v>
+        <v>40749</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="B86" s="2">
-        <v>3573</v>
+        <v>3181</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E86" s="3">
-        <v>40676</v>
+        <v>40741</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="B87" s="2">
-        <v>3574</v>
+        <v>3788</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>12</v>
@@ -2613,236 +2616,236 @@
         <v>35</v>
       </c>
       <c r="E87" s="3">
-        <v>39978</v>
+        <v>40737</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B88" s="2">
-        <v>3576</v>
+        <v>3595</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E88" s="3">
-        <v>40789</v>
+        <v>40733</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>124</v>
+        <v>215</v>
       </c>
       <c r="B89" s="2">
-        <v>3578</v>
+        <v>4047</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E89" s="3">
-        <v>44765</v>
+        <v>40725</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="B90" s="2">
-        <v>3579</v>
+        <v>3434</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E90" s="3">
-        <v>40278</v>
+        <v>40723</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="B91" s="2">
-        <v>3591</v>
+        <v>3914</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E91" s="3">
-        <v>40221</v>
+        <v>40707</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="B92" s="2">
-        <v>3595</v>
+        <v>3177</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E92" s="3">
-        <v>40733</v>
+        <v>40688</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="B93" s="2">
-        <v>3610</v>
+        <v>3718</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E93" s="3">
-        <v>40199</v>
+        <v>40681</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B94" s="2">
-        <v>3611</v>
+        <v>3484</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E94" s="3">
-        <v>40955</v>
+        <v>40680</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B95" s="2">
-        <v>3616</v>
+        <v>3573</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E95" s="3">
-        <v>40754</v>
+        <v>40676</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2">
-        <v>3620</v>
+        <v>3431</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E96" s="3">
-        <v>40775</v>
+        <v>40658</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2">
-        <v>3627</v>
+        <v>3532</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E97" s="3">
-        <v>40551</v>
+        <v>40658</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>133</v>
+        <v>59</v>
       </c>
       <c r="B98" s="2">
-        <v>3628</v>
+        <v>3078</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E98" s="3">
-        <v>40619</v>
+        <v>40649</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B99" s="2">
-        <v>3645</v>
+        <v>3563</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E99" s="3">
-        <v>40173</v>
+        <v>40625</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2">
-        <v>3668</v>
+        <v>3628</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E100" s="3">
-        <v>41876</v>
+        <v>40619</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="B101" s="2">
-        <v>3678</v>
+        <v>3853</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>11</v>
@@ -2851,58 +2854,58 @@
         <v>35</v>
       </c>
       <c r="E101" s="3">
-        <v>40288</v>
+        <v>40603</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="B102" s="2">
-        <v>3682</v>
+        <v>3790</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="E102" s="3">
+        <v>40594</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>138</v>
+        <v>52</v>
       </c>
       <c r="B103" s="2">
-        <v>3694</v>
+        <v>2991</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E103" s="3">
-        <v>40255</v>
+        <v>40588</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="B104" s="2">
-        <v>3694</v>
+        <v>4018</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E104" s="3">
-        <v>40770</v>
+        <v>40586</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -2924,95 +2927,95 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="B106" s="2">
-        <v>3712</v>
+        <v>3070</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E106" s="3">
-        <v>40198</v>
+        <v>40564</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>142</v>
+        <v>192</v>
       </c>
       <c r="B107" s="2">
-        <v>3718</v>
+        <v>3919</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E107" s="3">
-        <v>40681</v>
+        <v>40564</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>143</v>
+        <v>62</v>
       </c>
       <c r="B108" s="2">
-        <v>3719</v>
+        <v>3097</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E108" s="3">
-        <v>40307</v>
+        <v>40557</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>144</v>
+        <v>194</v>
       </c>
       <c r="B109" s="2">
-        <v>3721</v>
+        <v>3940</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E109" s="3">
-        <v>40052</v>
+        <v>40552</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B110" s="2">
-        <v>3724</v>
+        <v>3627</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E110" s="3">
-        <v>40882</v>
+        <v>40551</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="B111" s="2">
-        <v>3733</v>
+        <v>3346</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>4</v>
@@ -3021,780 +3024,780 @@
         <v>35</v>
       </c>
       <c r="E111" s="3">
-        <v>39606</v>
+        <v>40545</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="B112" s="2">
-        <v>3736</v>
+        <v>3528</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E112" s="3">
-        <v>41032</v>
+        <v>40533</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="B113" s="2">
-        <v>3741</v>
+        <v>3534</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E113" s="3">
-        <v>40395</v>
+        <v>40526</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B114" s="2">
-        <v>3744</v>
+        <v>3759</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E114" s="3">
-        <v>41158</v>
+        <v>40511</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B115" s="2">
-        <v>3752</v>
+        <v>3826</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E115" s="3">
-        <v>39934</v>
+        <v>40500</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
       <c r="B116" s="2">
-        <v>3754</v>
+        <v>3995</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E116" s="3">
-        <v>39692</v>
+        <v>40498</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>152</v>
+        <v>58</v>
       </c>
       <c r="B117" s="2">
-        <v>3757</v>
+        <v>3077</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E117" s="3">
-        <v>40893</v>
+        <v>40486</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B118" s="2">
-        <v>3759</v>
+        <v>3808</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E118" s="3">
-        <v>40511</v>
+        <v>40486</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="B119" s="2">
-        <v>3765</v>
+        <v>3952</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E119" s="3">
-        <v>41184</v>
+        <v>40479</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="B120" s="2">
-        <v>3768</v>
+        <v>3390</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E120" s="3">
-        <v>40343</v>
+        <v>40470</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="B121" s="2">
-        <v>3788</v>
+        <v>3953</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E121" s="3">
-        <v>40737</v>
+        <v>40463</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>157</v>
+        <v>49</v>
       </c>
       <c r="B122" s="2">
-        <v>3790</v>
+        <v>2870</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E122" s="3">
-        <v>40594</v>
+        <v>40456</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>158</v>
+        <v>104</v>
       </c>
       <c r="B123" s="2">
-        <v>3802</v>
+        <v>3485</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E123" s="3">
-        <v>40862</v>
+        <v>40456</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B124" s="2">
-        <v>3808</v>
+        <v>3818</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E124" s="3">
-        <v>40486</v>
+        <v>40447</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>160</v>
+        <v>219</v>
       </c>
       <c r="B125" s="2">
-        <v>3817</v>
+        <v>8321</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E125" s="3">
-        <v>41238</v>
+        <v>40445</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="B126" s="2">
-        <v>3817</v>
+        <v>3874</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E126" s="3">
-        <v>40962</v>
+        <v>40433</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="B127" s="2">
-        <v>3818</v>
+        <v>3228</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E127" s="3">
-        <v>40447</v>
+        <v>40431</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B128" s="2">
-        <v>3819</v>
+        <v>3821</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E128" s="3">
-        <v>40970</v>
+        <v>40431</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B129" s="2">
-        <v>3821</v>
+        <v>3741</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E129" s="3">
-        <v>40431</v>
+        <v>40395</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>165</v>
+        <v>213</v>
       </c>
       <c r="B130" s="2">
-        <v>3822</v>
+        <v>4035</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E130" s="3">
-        <v>40055</v>
+        <v>40371</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B131" s="2">
-        <v>3824</v>
+        <v>3870</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E131" s="3">
-        <v>41040</v>
+        <v>40354</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="B132" s="2">
-        <v>3826</v>
+        <v>3976</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E132" s="3">
-        <v>40500</v>
+        <v>40346</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>168</v>
+        <v>54</v>
       </c>
       <c r="B133" s="2">
-        <v>3827</v>
+        <v>3047</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E133" s="3">
-        <v>40132</v>
+        <v>40344</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B134" s="2">
-        <v>3830</v>
+        <v>3768</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E134" s="4">
-        <v>41088</v>
+      <c r="E134" s="3">
+        <v>40343</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>170</v>
+        <v>65</v>
       </c>
       <c r="B135" s="2">
-        <v>3833</v>
+        <v>3114</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E135" s="3">
-        <v>40799</v>
+        <v>40316</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="B136" s="2">
-        <v>3844</v>
+        <v>3433</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E136" s="3">
-        <v>39486</v>
+        <v>40307</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B137" s="2">
-        <v>3853</v>
+        <v>3719</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E137" s="3">
-        <v>40603</v>
+        <v>40307</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>173</v>
+        <v>136</v>
       </c>
       <c r="B138" s="2">
-        <v>3854</v>
+        <v>3678</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E138" s="3">
-        <v>40791</v>
+        <v>40288</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>174</v>
+        <v>125</v>
       </c>
       <c r="B139" s="2">
-        <v>3855</v>
+        <v>3579</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E139" s="3">
-        <v>40765</v>
+        <v>40278</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="B140" s="2">
-        <v>3856</v>
+        <v>2797</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E140" s="3">
-        <v>39847</v>
+        <v>40260</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="B141" s="2">
-        <v>3857</v>
+        <v>3694</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E141" s="3">
-        <v>40085</v>
+        <v>40255</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>177</v>
+        <v>64</v>
       </c>
       <c r="B142" s="2">
-        <v>3859</v>
+        <v>3105</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E142" s="3">
-        <v>39858</v>
+        <v>40252</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>178</v>
+        <v>99</v>
       </c>
       <c r="B143" s="2">
-        <v>3860</v>
+        <v>3453</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E143" s="3">
-        <v>40871</v>
+        <v>40252</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="B144" s="2">
-        <v>3862</v>
+        <v>3591</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E144" s="3">
-        <v>40855</v>
+        <v>40221</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>180</v>
+        <v>96</v>
       </c>
       <c r="B145" s="2">
-        <v>3868</v>
+        <v>3435</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E145" s="3">
-        <v>41661</v>
+        <v>40220</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>181</v>
+        <v>218</v>
       </c>
       <c r="B146" s="2">
-        <v>3870</v>
+        <v>4065</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E146" s="3">
-        <v>40354</v>
+        <v>40220</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B147" s="2">
-        <v>3873</v>
+        <v>3891</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E147" s="3">
-        <v>39964</v>
+        <v>40218</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>183</v>
+        <v>41</v>
       </c>
       <c r="B148" s="2">
-        <v>3874</v>
+        <v>372</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E148" s="3">
-        <v>40433</v>
+        <v>40210</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="B149" s="2">
-        <v>3882</v>
+        <v>3610</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E149" s="3">
-        <v>41279</v>
+        <v>40199</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="B150" s="2">
-        <v>3891</v>
+        <v>3712</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E150" s="3">
-        <v>40218</v>
+        <v>40198</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>186</v>
+        <v>38</v>
       </c>
       <c r="B151" s="2">
-        <v>3897</v>
+        <v>48</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E151" s="3">
-        <v>40954</v>
+        <v>40182</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="B152" s="2">
-        <v>3908</v>
+        <v>3645</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E152" s="3">
-        <v>41145</v>
+        <v>40173</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="B153" s="2">
-        <v>3913</v>
+        <v>2696</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D153" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E153" s="3">
-        <v>39636</v>
+        <v>40169</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>189</v>
+        <v>98</v>
       </c>
       <c r="B154" s="2">
-        <v>3914</v>
+        <v>3450</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E154" s="3">
-        <v>40707</v>
+        <v>40156</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B155" s="2">
-        <v>3915</v>
+        <v>3827</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E155" s="3">
-        <v>41253</v>
+        <v>40132</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="B156" s="2">
-        <v>3918</v>
+        <v>3481</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E156" s="3">
-        <v>41073</v>
+        <v>40129</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>192</v>
+        <v>75</v>
       </c>
       <c r="B157" s="2">
-        <v>3919</v>
+        <v>3227</v>
       </c>
       <c r="C157" s="1" t="s">
         <v>6</v>
@@ -3803,500 +3806,500 @@
         <v>34</v>
       </c>
       <c r="E157" s="3">
-        <v>40564</v>
+        <v>40127</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="B158" s="2">
-        <v>3920</v>
+        <v>3022</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E158" s="3">
-        <v>40955</v>
+        <v>40108</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="B159" s="2">
-        <v>3940</v>
+        <v>3857</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E159" s="3">
-        <v>40552</v>
+        <v>40085</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>195</v>
+        <v>109</v>
       </c>
       <c r="B160" s="2">
-        <v>3951</v>
+        <v>3517</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E160" s="3">
-        <v>40939</v>
+        <v>40082</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="B161" s="2">
-        <v>3952</v>
+        <v>3822</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E161" s="3">
-        <v>40479</v>
+        <v>40055</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="B162" s="2">
-        <v>3953</v>
+        <v>3721</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E162" s="3">
-        <v>40463</v>
+        <v>40052</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>198</v>
+        <v>56</v>
       </c>
       <c r="B163" s="2">
-        <v>3957</v>
+        <v>3065</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E163" s="3">
-        <v>39832</v>
+        <v>40049</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>199</v>
+        <v>71</v>
       </c>
       <c r="B164" s="2">
-        <v>3959</v>
+        <v>3187</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E164" s="3">
-        <v>40905</v>
+        <v>40043</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>200</v>
+        <v>78</v>
       </c>
       <c r="B165" s="2">
-        <v>3968</v>
+        <v>3241</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E165" s="3">
-        <v>41049</v>
+        <v>40032</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="B166" s="2">
-        <v>3969</v>
+        <v>17</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E166" s="3">
-        <v>41159</v>
+        <v>40017</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>202</v>
+        <v>87</v>
       </c>
       <c r="B167" s="2">
-        <v>3976</v>
+        <v>3335</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E167" s="3">
-        <v>40346</v>
+        <v>40015</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>203</v>
+        <v>51</v>
       </c>
       <c r="B168" s="2">
-        <v>3980</v>
+        <v>2969</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E168" s="3">
-        <v>40770</v>
+        <v>40005</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="B169" s="2">
-        <v>3984</v>
+        <v>3268</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E169" s="3">
-        <v>41335</v>
+        <v>39985</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="B170" s="2">
-        <v>3990</v>
+        <v>3574</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E170" s="3">
-        <v>41015</v>
+        <v>39978</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B171" s="2">
-        <v>3995</v>
+        <v>2737</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E171" s="3">
-        <v>40498</v>
+        <v>39971</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="B172" s="2">
-        <v>4018</v>
+        <v>3499</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E172" s="3">
-        <v>40586</v>
+        <v>39971</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="B173" s="2">
-        <v>4021</v>
+        <v>3873</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E173" s="3">
-        <v>40774</v>
+        <v>39964</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="B174" s="2">
-        <v>4024</v>
+        <v>3752</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E174" s="3">
-        <v>40749</v>
+        <v>39934</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="B175" s="2">
-        <v>4025</v>
+        <v>3411</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E175" s="3">
-        <v>41152</v>
+        <v>39899</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>210</v>
+        <v>119</v>
       </c>
       <c r="B176" s="2">
-        <v>4026</v>
+        <v>3566</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E176" s="3">
-        <v>41207</v>
+        <v>39885</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="B177" s="2">
-        <v>4031</v>
+        <v>3570</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E177" s="3">
-        <v>41177</v>
+        <v>39869</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="B178" s="2">
-        <v>4033</v>
+        <v>3859</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E178" s="3">
-        <v>40876</v>
+        <v>39858</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>213</v>
+        <v>175</v>
       </c>
       <c r="B179" s="2">
-        <v>4035</v>
+        <v>3856</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E179" s="3">
-        <v>40371</v>
+        <v>39847</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B180" s="2">
-        <v>4036</v>
+        <v>3957</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>31</v>
+      <c r="E180" s="3">
+        <v>39832</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>215</v>
+        <v>151</v>
       </c>
       <c r="B181" s="2">
-        <v>4047</v>
+        <v>3754</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E181" s="3">
-        <v>40725</v>
+        <v>39692</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="B182" s="2">
-        <v>4056</v>
+        <v>3913</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E182" s="3">
-        <v>40828</v>
+        <v>39636</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="B183" s="2">
-        <v>4058</v>
+        <v>3733</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E183" s="3">
-        <v>41405</v>
+        <v>39606</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>218</v>
+        <v>36</v>
       </c>
       <c r="B184" s="2">
-        <v>4065</v>
+        <v>15</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E184" s="3">
-        <v>40220</v>
+        <v>39536</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="B185" s="2">
-        <v>8321</v>
+        <v>3844</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>34</v>
       </c>
       <c r="E185" s="3">
-        <v>40445</v>
+        <v>39486</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="B186" s="2">
-        <v>8730</v>
+        <v>3099</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E186" s="3">
-        <v>41142</v>
+        <v>39169</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
@@ -11972,10 +11975,11 @@
       <c r="E1282" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E1283">
-    <sortCondition ref="B2:B1283"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E186">
+    <sortCondition descending="1" ref="E2:E186"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
